--- a/results/pvalue_SIDER_rare_DGI_AUPR+AUROCperdrug.xlsx
+++ b/results/pvalue_SIDER_rare_DGI_AUPR+AUROCperdrug.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>21.368</t>
+          <t>17.653</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>24.039</t>
+          <t>19.1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.652</t>
+          <t>7.657</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>21.217</t>
+          <t>16.21</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>21.008</t>
+          <t>21.702</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21.659</t>
+          <t>22.42</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17.654</t>
+          <t>18.312</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>26.171</t>
+          <t>27.329</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>13.047</t>
+          <t>18.545</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
